--- a/data/pre_home_alone.xlsx
+++ b/data/pre_home_alone.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tommi\Time use Analysis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tommi\Time-use-Analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99397A4-DA95-4F89-AB0F-849D4A8D29EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D263CE4-2F18-4B04-BD68-CF5385A60444}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74940DF6-CB15-4814-B6D7-1FC43D836308}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="16">
   <si>
     <t>Tuesday</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>Missing_alone</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Pre</t>
   </si>
 </sst>
 </file>
@@ -426,15 +432,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89648FF2-D15B-44F2-8F8A-EF03A880D266}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I2" sqref="I2:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -459,8 +465,11 @@
       <c r="H1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -485,8 +494,11 @@
       <c r="H2">
         <v>8.3333333333333339</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -511,8 +523,11 @@
       <c r="H3">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -537,8 +552,11 @@
       <c r="H4">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -563,8 +581,11 @@
       <c r="H5">
         <v>7.8333333333333339</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -589,8 +610,11 @@
       <c r="H6">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -615,8 +639,11 @@
       <c r="H7">
         <v>9.1666666666666661</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -641,8 +668,11 @@
       <c r="H8">
         <v>8.1666666666666661</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -667,8 +697,11 @@
       <c r="H9">
         <v>9.3333333333333339</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -693,8 +726,11 @@
       <c r="H10">
         <v>8.6666666666666661</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -719,8 +755,11 @@
       <c r="H11">
         <v>7.8333333333333339</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -745,8 +784,11 @@
       <c r="H12">
         <v>11.333333333333334</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -771,8 +813,11 @@
       <c r="H13">
         <v>7.6666666666666679</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -797,8 +842,11 @@
       <c r="H14">
         <v>7.6666666666666679</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -823,8 +871,11 @@
       <c r="H15">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -849,8 +900,11 @@
       <c r="H16">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -875,8 +929,11 @@
       <c r="H17">
         <v>8.3333333333333339</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -901,8 +958,11 @@
       <c r="H18">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -927,8 +987,11 @@
       <c r="H19">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -953,8 +1016,11 @@
       <c r="H20">
         <v>9.3333333333333339</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -979,8 +1045,11 @@
       <c r="H21">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1005,8 +1074,11 @@
       <c r="H22">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1031,8 +1103,11 @@
       <c r="H23">
         <v>5.833333333333333</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1057,8 +1132,11 @@
       <c r="H24">
         <v>7.6666666666666679</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1083,8 +1161,11 @@
       <c r="H25">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1109,8 +1190,11 @@
       <c r="H26">
         <v>21.833333333333332</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1134,6 +1218,9 @@
       </c>
       <c r="H27">
         <v>8.3333333333333339</v>
+      </c>
+      <c r="I27" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
